--- a/biology/Zoologie/Bleu-nacré_sarde/Bleu-nacré_sarde.xlsx
+++ b/biology/Zoologie/Bleu-nacré_sarde/Bleu-nacré_sarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_sarde</t>
+          <t>Bleu-nacré_sarde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Lysandra gennargenti
 Le Bleu-nacré sarde (Lysandra gennargenti) est une espèce d'insectes lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae, endémique de Sardaigne.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_sarde</t>
+          <t>Bleu-nacré_sarde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Historique et taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le taxon actuellement appelé Lysandra gennargenti a été décrit par Giorgio Leigheb (d) en 1987 sous le nom de Lysandra coridon gennargenti[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le taxon actuellement appelé Lysandra gennargenti a été décrit par Giorgio Leigheb (d) en 1987 sous le nom de Lysandra coridon gennargenti,.
 Le statut de ce taxon (espèce à part entière ou sous-espèce de Lysandra coridon) reste débattu.
-Comme le genre Lysandra était précédemment considéré par certains auteurs comme un sous-genre du genre Polyommatus, le Bleu-nacré sarde est parfois cité sous les noms de Polyommatus gennargenti ou Polyommatus coridon gennargenti[2].
+Comme le genre Lysandra était précédemment considéré par certains auteurs comme un sous-genre du genre Polyommatus, le Bleu-nacré sarde est parfois cité sous les noms de Polyommatus gennargenti ou Polyommatus coridon gennargenti.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_sarde</t>
+          <t>Bleu-nacré_sarde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,10 +559,12 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En français : le Bleu-nacré sarde[3].
-En anglais : Sardinian Chalk Hill Blue[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En français : le Bleu-nacré sarde.
+En anglais : Sardinian Chalk Hill Blue.</t>
         </is>
       </c>
     </row>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_sarde</t>
+          <t>Bleu-nacré_sarde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,9 +592,11 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mâle du Bleu-nacré sarde a le dessus des ailes bleu clair brillant, tandis que les femelles sont bleu clair avec une large bordure sombre. Le revers des ailes présente la ponctuation habituelle des Lysandra, mais avec des ocelles plus réduits[3],[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mâle du Bleu-nacré sarde a le dessus des ailes bleu clair brillant, tandis que les femelles sont bleu clair avec une large bordure sombre. Le revers des ailes présente la ponctuation habituelle des Lysandra, mais avec des ocelles plus réduits,.
 </t>
         </is>
       </c>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_sarde</t>
+          <t>Bleu-nacré_sarde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,10 +625,12 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lysandra gennargenti est univoltin et ses imagos sont visibles en juillet-août[3],[5].
-La plante-hôte est Hippocrepis comosa[3]. 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lysandra gennargenti est univoltin et ses imagos sont visibles en juillet-août,.
+La plante-hôte est Hippocrepis comosa. 
 </t>
         </is>
       </c>
@@ -621,7 +641,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Bleu-nacr%C3%A9_sarde</t>
+          <t>Bleu-nacré_sarde</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -639,9 +659,11 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Lysandra gennargenti est endémique de Sardaigne, où il est très localisé et vit dans des pelouses sèches entre 800 et 1 300 m d'altitude[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lysandra gennargenti est endémique de Sardaigne, où il est très localisé et vit dans des pelouses sèches entre 800 et 1 300 m d'altitude.
 </t>
         </is>
       </c>
